--- a/4.项目提交制品/4.4软件测试/3-场景测试/场景测试覆盖表.xlsx
+++ b/4.项目提交制品/4.4软件测试/3-场景测试/场景测试覆盖表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonny\Desktop\测试结果\3-场景测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\赵正阳\L\研究生\软件工程综合实验\20_H\4.项目提交制品\4.4软件测试\3-场景测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A3FB7-6446-4F7B-A9A8-5427C6E39D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -239,7 +238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -262,7 +261,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -284,7 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -314,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -336,7 +335,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -376,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -398,7 +397,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -421,7 +420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -443,7 +442,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -474,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -496,7 +495,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -545,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -567,7 +566,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -608,7 +607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +629,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -653,7 +652,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -675,7 +674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -705,7 +704,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -727,7 +726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -750,7 +749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -772,7 +771,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -802,7 +801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -824,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -858,7 +857,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -880,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -903,7 +902,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -925,7 +924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -948,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -970,7 +969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1033,21 +1032,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.鼠标悬停在任务列表中的一个任务上
-2.选择正在运行的任务，点击暂停按钮
-3.选择已暂停的任务，点击继续按钮
-4.选择等待运行、正在运行或已暂停的任务，点击继续按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.任务状态更新为“已暂停”，可执行操作变为继续和终止
-2.任务状态更新为“已暂停”，可执行操作变为继续和终止
-3.任务状态更新为“正在运行”，可执行操作变为暂停和终止
-4.任务状态更新为“已终止行”，可执行操作变为重新运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1087,29 +1072,43 @@
   <si>
     <t>H-EasySpider-软件测试规格说明书v1.1</t>
   </si>
+  <si>
+    <t>1.任务状态更新为“已暂停”，可执行操作变为继续和终止
+2.任务状态更新为“已暂停”，可执行操作变为继续和终止
+3.任务状态更新为“正在运行”，可执行操作变为暂停和终止
+4.任务状态更新为“已终止”，可执行操作变为重新运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.鼠标悬停在任务列表中的一个任务上
+2.选择正在运行的任务，点击暂停按钮
+3.选择已暂停的任务，点击继续按钮
+4.选择等待运行、正在运行或已暂停的任务，点击终止按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1117,7 +1116,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1365,6 +1364,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,90 +1403,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1734,101 +1733,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="34.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="5" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" style="2"/>
+    <col min="9" max="9" width="34.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="20">
         <v>43967</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="I3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1851,20 +1848,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="210">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:13" ht="196" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="18" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="26" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1876,20 +1873,20 @@
       <c r="J5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="19"/>
+    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1899,18 +1896,18 @@
       <c r="J6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="225">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="20"/>
+    <row r="7" spans="1:13" ht="196" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1918,26 +1915,26 @@
         <v>54</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="300">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:13" ht="280" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="18" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="26" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -1949,20 +1946,20 @@
       <c r="J8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="120">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="19"/>
+    <row r="9" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1972,18 +1969,18 @@
       <c r="J9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="20"/>
+    <row r="10" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1993,24 +1990,24 @@
       <c r="J10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="1:13" ht="105">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:13" ht="98" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="18" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="26" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2022,20 +2019,20 @@
       <c r="J11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" ht="105">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="19"/>
+    <row r="12" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2045,18 +2042,18 @@
       <c r="J12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" ht="60">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="20"/>
+    <row r="13" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2066,24 +2063,24 @@
       <c r="J13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13" ht="210">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:13" ht="196" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="18" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2095,20 +2092,20 @@
       <c r="J14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="19"/>
+    <row r="15" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="6" t="s">
         <v>23</v>
       </c>
@@ -2118,18 +2115,18 @@
       <c r="J15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" ht="60">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="20"/>
+    <row r="16" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="6" t="s">
         <v>24</v>
       </c>
@@ -2139,24 +2136,24 @@
       <c r="J16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13" ht="225">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:13" ht="182" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="18" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -2168,20 +2165,20 @@
       <c r="J17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13" ht="45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="19"/>
+    <row r="18" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="6" t="s">
         <v>23</v>
       </c>
@@ -2191,18 +2188,18 @@
       <c r="J18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="20"/>
+    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="6" t="s">
         <v>24</v>
       </c>
@@ -2212,91 +2209,113 @@
       <c r="J19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13" ht="120">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:13" ht="112" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>65</v>
+      <c r="C20" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="K20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:13" ht="135">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+    <row r="21" spans="1:13" ht="98" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="A8:A10"/>
@@ -2311,34 +2330,12 @@
     <mergeCell ref="C5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
